--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>551418.1852114162</v>
+        <v>549530.6036950145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>322.4359398757656</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>121.0633651463839</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>78.70870113465217</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>234.2559520454604</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.69318318175317</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>246.795623832921</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112.2008592180674</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>149.605800467988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>239.3629904425308</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491437</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70678535262176</v>
       </c>
       <c r="X10" t="n">
-        <v>54.89632529172478</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.21952718910659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>2.496989041814572</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>36.68438066281193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.5181127720135</v>
+        <v>33.35146980185891</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.77945773664926</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>176.8688121773848</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.06705067831057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>160.0750528412507</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>45.40012322653642</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>13.87840711102869</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3272,19 +3272,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.604727733593</v>
+        <v>601.1385180919708</v>
       </c>
       <c r="C2" t="n">
-        <v>1503.604727733593</v>
+        <v>601.1385180919708</v>
       </c>
       <c r="D2" t="n">
-        <v>1503.604727733593</v>
+        <v>601.1385180919708</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.816475135349</v>
+        <v>601.1385180919708</v>
       </c>
       <c r="F2" t="n">
-        <v>706.8305703457411</v>
+        <v>594.1930173427673</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>176.2292092409542</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>176.2292092409542</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.744059709405</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.604727733593</v>
+        <v>601.1385180919708</v>
       </c>
     </row>
     <row r="3">
@@ -4386,46 +4386,46 @@
         <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>269.7756312415669</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036446</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174274</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>999.4901647174274</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>641.224466110677</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>641.224466110677</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,7 +4647,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598706</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124031</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1778.063616086465</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1778.063616086465</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696253</v>
+        <v>1419.797917479714</v>
       </c>
       <c r="E8" t="n">
-        <v>478.852290671381</v>
+        <v>1034.00966488147</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>623.0237600918624</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>205.0599519900493</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628376</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.971840201577</v>
+        <v>2168.202948062276</v>
       </c>
       <c r="X8" t="n">
-        <v>1609.506081940498</v>
+        <v>2168.202948062276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1778.063616086465</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4945,67 +4945,67 @@
         <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>484.4236418782182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>257.1154545468199</v>
       </c>
       <c r="U10" t="n">
-        <v>438.955373861002</v>
+        <v>257.1154545468199</v>
       </c>
       <c r="V10" t="n">
-        <v>438.955373861002</v>
+        <v>257.1154545468199</v>
       </c>
       <c r="W10" t="n">
-        <v>438.955373861002</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329972</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329972</v>
+        <v>201.8560754027575</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5048,25 +5048,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655741</v>
+        <v>783.5599953231706</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>494.14282528621</v>
       </c>
       <c r="X13" t="n">
-        <v>437.696422630596</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.696422630596</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2484.468242641992</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.0842369787848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>1172.732701809025</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.732701809025</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.732701809025</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.732701809025</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,61 +5504,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687013</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.867621687013</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X19" t="n">
-        <v>781.8780707889958</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407765</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>157.6003821033659</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033659</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,37 +5987,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.0423951757511</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="C25" t="n">
-        <v>173.0423951757511</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="D25" t="n">
-        <v>173.0423951757511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>173.0423951757511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429514</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W25" t="n">
-        <v>354.6908600059909</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X25" t="n">
-        <v>354.6908600059909</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y25" t="n">
-        <v>354.6908600059909</v>
+        <v>130.9054447954963</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X28" t="n">
-        <v>1137.304287906534</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.5117087630043</v>
+        <v>241.9805482336711</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215249</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749887</v>
+        <v>326.3571123076826</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>280.4984019778477</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264617</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
@@ -6631,7 +6631,7 @@
         <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1922.107470014631</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1754.082920085508</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1520.715146580437</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1321.791523655921</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1088.135218900331</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>915.9065332836842</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215249</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,28 +7804,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451776</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783527</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305314</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>39.88923345256779</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>295.3773510571276</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>242.9997743936052</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6124529928307</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>249.6406542820134</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>215.4532626610161</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>185.2331835502365</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.066540580081266</v>
+        <v>185.2331835502359</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4673633619786</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.26883114644318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>115.264003216354</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>70.35399734462068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>36.51615797628598</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>65.63460254778641</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311883</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>128.8391462440175</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="G2" t="n">
         <v>332374.7007770526</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770525</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="J2" t="n">
         <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434798</v>
+        <v>345798.81674348</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923204</v>
@@ -26347,13 +26347,13 @@
         <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
+        <v>348942.7521923203</v>
+      </c>
+      <c r="O2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600745</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007504</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020409</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
@@ -26451,13 +26451,13 @@
         <v>30335.51889732793</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-471801.2538015544</v>
+        <v>-471801.2538015543</v>
       </c>
       <c r="C6" t="n">
-        <v>118166.6254129903</v>
+        <v>118166.6254129902</v>
       </c>
       <c r="D6" t="n">
-        <v>118166.6254129901</v>
+        <v>118166.6254129906</v>
       </c>
       <c r="E6" t="n">
-        <v>-292689.393304568</v>
+        <v>-292786.8524305402</v>
       </c>
       <c r="F6" t="n">
-        <v>232470.6431723282</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="G6" t="n">
-        <v>232470.6431723284</v>
+        <v>232373.1840463563</v>
       </c>
       <c r="H6" t="n">
-        <v>232470.6431723286</v>
+        <v>232373.1840463562</v>
       </c>
       <c r="I6" t="n">
-        <v>232470.6431723284</v>
+        <v>232373.1840463561</v>
       </c>
       <c r="J6" t="n">
-        <v>56047.42397973544</v>
+        <v>55949.96485376322</v>
       </c>
       <c r="K6" t="n">
-        <v>178926.6487402073</v>
+        <v>178908.1550022732</v>
       </c>
       <c r="L6" t="n">
         <v>210549.2206741002</v>
       </c>
       <c r="M6" t="n">
-        <v>86091.11224112971</v>
+        <v>86091.11224112983</v>
       </c>
       <c r="N6" t="n">
-        <v>220892.1274749672</v>
+        <v>220892.127474967</v>
       </c>
       <c r="O6" t="n">
         <v>220892.1274749671</v>
       </c>
       <c r="P6" t="n">
-        <v>176729.5221721215</v>
+        <v>176729.5221721213</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>91.34823014502939</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>30.86795109847739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>77.46218770714297</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>52.02592219651731</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.1828625599583</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>80.95663463721388</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.22018880486389</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>174.3169722963692</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>109.8779782748822</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.8162129839693</v>
       </c>
       <c r="X10" t="n">
-        <v>170.8133300973124</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.629556485621502e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
         <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355141</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262129</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>140.5103663981272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>556.8688383914607</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>350.313610503034</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.8807855431339</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131518</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>553.4241514440714</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
